--- a/PrePSSBeha_corrected.xlsx
+++ b/PrePSSBeha_corrected.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17426"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrea\Documents\GitHub\PSS-Simon-data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2560" yWindow="0" windowWidth="25220" windowHeight="15720" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="2560" yWindow="0" windowWidth="25220" windowHeight="15720" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PrePSSBeha.xls" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,7 @@
     <definedName name="SPSS" localSheetId="1">'Summary (corrected)'!$A$1:$AC$59</definedName>
     <definedName name="SPSS">PrePSSBeha.xls!$A$1:$AE$59</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -131,7 +136,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#.000"/>
     <numFmt numFmtId="165" formatCode="#.0000"/>
@@ -302,11 +307,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -383,13 +396,13 @@
                   <c:v>0.875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.5</c:v>
@@ -410,7 +423,7 @@
                   <c:v>0.875</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.875</c:v>
@@ -434,7 +447,7 @@
                   <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.5</c:v>
@@ -446,22 +459,22 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.625</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.75</c:v>
@@ -476,7 +489,7 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0.875</c:v>
@@ -503,10 +516,10 @@
                   <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>0.5</c:v>
@@ -515,13 +528,13 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>0.625</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>0.625</c:v>
@@ -539,28 +552,28 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="58"/>
                 <c:pt idx="0">
-                  <c:v>95.47176079734225</c:v>
+                  <c:v>95.471760797342256</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>62.47222222222223</c:v>
+                  <c:v>62.472222222222229</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.45104895104896</c:v>
+                  <c:v>21.451048951048961</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.3279220779221</c:v>
+                  <c:v>10.327922077922096</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>183.2402597402598</c:v>
+                  <c:v>183.24025974025977</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>102.1318181818182</c:v>
+                  <c:v>102.13181818181818</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>48.5457364341085</c:v>
+                  <c:v>48.545736434108505</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>66.00715563506264</c:v>
+                  <c:v>66.007155635062645</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>58.01948051948051</c:v>
@@ -569,121 +582,121 @@
                   <c:v>86.03333333333336</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.63809523809522</c:v>
+                  <c:v>13.638095238095218</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>108.5904761904762</c:v>
+                  <c:v>108.59047619047624</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>63.79545454545456</c:v>
+                  <c:v>63.795454545454561</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>47.69393939393938</c:v>
+                  <c:v>47.693939393939388</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>94.47521367521375</c:v>
+                  <c:v>94.475213675213752</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>55.30606060606061</c:v>
+                  <c:v>55.306060606060612</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43.44444444444446</c:v>
+                  <c:v>43.444444444444457</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>68.6015873015873</c:v>
+                  <c:v>68.601587301587301</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>17.89523809523808</c:v>
+                  <c:v>17.895238095238085</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>61.11038961038963</c:v>
+                  <c:v>61.110389610389632</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>87.05909090909091</c:v>
+                  <c:v>87.059090909090912</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>130.3059440559441</c:v>
+                  <c:v>130.30594405594405</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>55.92063492063494</c:v>
+                  <c:v>55.920634920634939</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>65.95182724252493</c:v>
+                  <c:v>65.951827242524928</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>34.60606060606057</c:v>
+                  <c:v>34.606060606060566</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>55.07954545454544</c:v>
+                  <c:v>55.079545454545439</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>37.99025974025971</c:v>
+                  <c:v>37.990259740259717</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>37.7439393939394</c:v>
+                  <c:v>37.743939393939399</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>122.4543828264758</c:v>
+                  <c:v>122.45438282647581</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>59.82626262626263</c:v>
+                  <c:v>59.826262626262633</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>56.94444444444446</c:v>
+                  <c:v>56.944444444444457</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>241.6923076923077</c:v>
+                  <c:v>241.69230769230774</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>42.01025641025643</c:v>
+                  <c:v>42.010256410256432</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>65.65873015873018</c:v>
+                  <c:v>65.658730158730179</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>102.1850649350649</c:v>
+                  <c:v>102.18506493506493</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>45.1065891472868</c:v>
+                  <c:v>45.106589147286797</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>37.00348432055745</c:v>
+                  <c:v>37.003484320557448</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>103.563492063492</c:v>
+                  <c:v>103.56349206349205</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>115.7095238095238</c:v>
+                  <c:v>115.70952380952383</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>83.01948051948051</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-33.875415282392</c:v>
+                  <c:v>-33.875415282391998</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>86.26223776223775</c:v>
+                  <c:v>86.26223776223776</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>18.45606060606059</c:v>
+                  <c:v>18.456060606060589</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>22.29999999999995</c:v>
+                  <c:v>22.299999999999955</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>85.50454545454545</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>62.47222222222223</c:v>
+                  <c:v>62.472222222222229</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>70.25457875457874</c:v>
+                  <c:v>70.254578754578745</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>102.5675213675214</c:v>
+                  <c:v>102.56752136752135</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>51.48601398601403</c:v>
+                  <c:v>51.486013986014029</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>56.61395348837209</c:v>
@@ -692,6 +705,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6C82-4977-A817-CF3745C73BCF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -708,8 +726,8 @@
         <c:axId val="-2121908648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.1"/>
-          <c:min val="0.0"/>
+          <c:max val="1.1000000000000001"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -744,7 +762,7 @@
         <c:axId val="-2118490712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="250.0"/>
+          <c:max val="250"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -795,14 +813,14 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -879,13 +897,13 @@
                   <c:v>0.875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.5</c:v>
@@ -906,7 +924,7 @@
                   <c:v>0.875</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.875</c:v>
@@ -930,7 +948,7 @@
                   <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.5</c:v>
@@ -942,22 +960,22 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.625</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.75</c:v>
@@ -972,7 +990,7 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0.875</c:v>
@@ -999,10 +1017,10 @@
                   <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>0.5</c:v>
@@ -1011,13 +1029,13 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>0.625</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>0.625</c:v>
@@ -1035,28 +1053,28 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="58"/>
                 <c:pt idx="0">
-                  <c:v>95.47176079734225</c:v>
+                  <c:v>95.471760797342256</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>62.47222222222223</c:v>
+                  <c:v>62.472222222222229</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.45104895104896</c:v>
+                  <c:v>21.451048951048961</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.3279220779221</c:v>
+                  <c:v>10.327922077922096</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>183.2402597402598</c:v>
+                  <c:v>183.24025974025977</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>102.1318181818182</c:v>
+                  <c:v>102.13181818181818</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>48.5457364341085</c:v>
+                  <c:v>48.545736434108505</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>66.00715563506264</c:v>
+                  <c:v>66.007155635062645</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>58.01948051948051</c:v>
@@ -1065,121 +1083,121 @@
                   <c:v>86.03333333333336</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.63809523809522</c:v>
+                  <c:v>13.638095238095218</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>108.5904761904762</c:v>
+                  <c:v>108.59047619047624</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>63.79545454545456</c:v>
+                  <c:v>63.795454545454561</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>47.69393939393938</c:v>
+                  <c:v>47.693939393939388</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>94.47521367521375</c:v>
+                  <c:v>94.475213675213752</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>55.30606060606061</c:v>
+                  <c:v>55.306060606060612</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43.44444444444446</c:v>
+                  <c:v>43.444444444444457</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>68.6015873015873</c:v>
+                  <c:v>68.601587301587301</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>17.89523809523808</c:v>
+                  <c:v>17.895238095238085</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>61.11038961038963</c:v>
+                  <c:v>61.110389610389632</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>87.05909090909091</c:v>
+                  <c:v>87.059090909090912</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>130.3059440559441</c:v>
+                  <c:v>130.30594405594405</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>55.92063492063494</c:v>
+                  <c:v>55.920634920634939</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>65.95182724252493</c:v>
+                  <c:v>65.951827242524928</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>34.60606060606057</c:v>
+                  <c:v>34.606060606060566</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>55.07954545454544</c:v>
+                  <c:v>55.079545454545439</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>37.99025974025971</c:v>
+                  <c:v>37.990259740259717</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>37.7439393939394</c:v>
+                  <c:v>37.743939393939399</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>122.4543828264758</c:v>
+                  <c:v>122.45438282647581</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>59.82626262626263</c:v>
+                  <c:v>59.826262626262633</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>56.94444444444446</c:v>
+                  <c:v>56.944444444444457</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>241.6923076923077</c:v>
+                  <c:v>241.69230769230774</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>42.01025641025643</c:v>
+                  <c:v>42.010256410256432</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>65.65873015873018</c:v>
+                  <c:v>65.658730158730179</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>102.1850649350649</c:v>
+                  <c:v>102.18506493506493</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>45.1065891472868</c:v>
+                  <c:v>45.106589147286797</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>37.00348432055745</c:v>
+                  <c:v>37.003484320557448</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>103.563492063492</c:v>
+                  <c:v>103.56349206349205</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>115.7095238095238</c:v>
+                  <c:v>115.70952380952383</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>83.01948051948051</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-33.875415282392</c:v>
+                  <c:v>-33.875415282391998</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>86.26223776223775</c:v>
+                  <c:v>86.26223776223776</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>18.45606060606059</c:v>
+                  <c:v>18.456060606060589</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>22.29999999999995</c:v>
+                  <c:v>22.299999999999955</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>85.50454545454545</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>62.47222222222223</c:v>
+                  <c:v>62.472222222222229</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>70.25457875457874</c:v>
+                  <c:v>70.254578754578745</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>102.5675213675214</c:v>
+                  <c:v>102.56752136752135</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>51.48601398601403</c:v>
+                  <c:v>51.486013986014029</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>56.61395348837209</c:v>
@@ -1188,6 +1206,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E629-4D4B-B61E-1F31F80DA5E0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1204,8 +1227,8 @@
         <c:axId val="2138714712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.1"/>
-          <c:min val="0.0"/>
+          <c:max val="1.1000000000000001"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1225,7 +1248,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
@@ -1241,7 +1263,7 @@
         <c:axId val="2138681320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="250.0"/>
+          <c:max val="250"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1262,7 +1284,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="0"/>
@@ -1293,14 +1314,14 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1348,13 +1369,13 @@
                   <c:v>0.875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.4375</c:v>
@@ -1399,7 +1420,7 @@
                   <c:v>0.4375</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.5625</c:v>
@@ -1411,13 +1432,13 @@
                   <c:v>0.5625</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.9375</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.5625</c:v>
@@ -1441,7 +1462,7 @@
                   <c:v>0.625</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0.75</c:v>
@@ -1456,10 +1477,10 @@
                   <c:v>0.875</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.0625</c:v>
+                  <c:v>6.25E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>0.875</c:v>
@@ -1468,7 +1489,7 @@
                   <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>0.9375</c:v>
@@ -1504,28 +1525,28 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="58"/>
                 <c:pt idx="0">
-                  <c:v>95.47176079734225</c:v>
+                  <c:v>95.471760797342256</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>62.47222222222223</c:v>
+                  <c:v>62.472222222222229</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.45104895104896</c:v>
+                  <c:v>21.451048951048961</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.3279220779221</c:v>
+                  <c:v>10.327922077922096</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>183.2402597402598</c:v>
+                  <c:v>183.24025974025977</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>102.1318181818182</c:v>
+                  <c:v>102.13181818181818</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>48.5457364341085</c:v>
+                  <c:v>48.545736434108505</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>66.00715563506264</c:v>
+                  <c:v>66.007155635062645</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>58.01948051948051</c:v>
@@ -1534,121 +1555,121 @@
                   <c:v>86.03333333333336</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.63809523809522</c:v>
+                  <c:v>13.638095238095218</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>108.5904761904762</c:v>
+                  <c:v>108.59047619047624</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>63.79545454545456</c:v>
+                  <c:v>63.795454545454561</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>47.69393939393938</c:v>
+                  <c:v>47.693939393939388</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>94.47521367521375</c:v>
+                  <c:v>94.475213675213752</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>55.30606060606061</c:v>
+                  <c:v>55.306060606060612</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43.44444444444446</c:v>
+                  <c:v>43.444444444444457</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>68.6015873015873</c:v>
+                  <c:v>68.601587301587301</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>17.89523809523808</c:v>
+                  <c:v>17.895238095238085</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>61.11038961038963</c:v>
+                  <c:v>61.110389610389632</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>87.05909090909091</c:v>
+                  <c:v>87.059090909090912</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>130.3059440559441</c:v>
+                  <c:v>130.30594405594405</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>55.92063492063494</c:v>
+                  <c:v>55.920634920634939</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>65.95182724252493</c:v>
+                  <c:v>65.951827242524928</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>34.60606060606057</c:v>
+                  <c:v>34.606060606060566</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>55.07954545454544</c:v>
+                  <c:v>55.079545454545439</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>37.99025974025971</c:v>
+                  <c:v>37.990259740259717</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>37.7439393939394</c:v>
+                  <c:v>37.743939393939399</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>122.4543828264758</c:v>
+                  <c:v>122.45438282647581</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>59.82626262626263</c:v>
+                  <c:v>59.826262626262633</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>56.94444444444446</c:v>
+                  <c:v>56.944444444444457</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>241.6923076923077</c:v>
+                  <c:v>241.69230769230774</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>42.01025641025643</c:v>
+                  <c:v>42.010256410256432</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>65.65873015873018</c:v>
+                  <c:v>65.658730158730179</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>102.1850649350649</c:v>
+                  <c:v>102.18506493506493</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>45.1065891472868</c:v>
+                  <c:v>45.106589147286797</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>37.00348432055745</c:v>
+                  <c:v>37.003484320557448</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>103.563492063492</c:v>
+                  <c:v>103.56349206349205</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>115.7095238095238</c:v>
+                  <c:v>115.70952380952383</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>83.01948051948051</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-33.875415282392</c:v>
+                  <c:v>-33.875415282391998</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>86.26223776223775</c:v>
+                  <c:v>86.26223776223776</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>18.45606060606059</c:v>
+                  <c:v>18.456060606060589</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>22.29999999999995</c:v>
+                  <c:v>22.299999999999955</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>85.50454545454545</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>62.47222222222223</c:v>
+                  <c:v>62.472222222222229</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>70.25457875457874</c:v>
+                  <c:v>70.254578754578745</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>102.5675213675214</c:v>
+                  <c:v>102.56752136752135</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>51.48601398601403</c:v>
+                  <c:v>51.486013986014029</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>56.61395348837209</c:v>
@@ -1657,6 +1678,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-04C0-4A90-9B76-8575052760AD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1687,13 +1713,13 @@
                   <c:v>0.875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.4375</c:v>
@@ -1738,7 +1764,7 @@
                   <c:v>0.4375</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.5625</c:v>
@@ -1750,13 +1776,13 @@
                   <c:v>0.5625</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.9375</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.5625</c:v>
@@ -1780,7 +1806,7 @@
                   <c:v>0.625</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0.75</c:v>
@@ -1795,10 +1821,10 @@
                   <c:v>0.875</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.0625</c:v>
+                  <c:v>6.25E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>0.875</c:v>
@@ -1807,7 +1833,7 @@
                   <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>0.9375</c:v>
@@ -1843,28 +1869,28 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="58"/>
                 <c:pt idx="0">
-                  <c:v>95.47176079734225</c:v>
+                  <c:v>95.471760797342256</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>62.47222222222223</c:v>
+                  <c:v>62.472222222222229</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.45104895104896</c:v>
+                  <c:v>21.451048951048961</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.3279220779221</c:v>
+                  <c:v>10.327922077922096</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>183.2402597402598</c:v>
+                  <c:v>183.24025974025977</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>102.1318181818182</c:v>
+                  <c:v>102.13181818181818</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>48.5457364341085</c:v>
+                  <c:v>48.545736434108505</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>66.00715563506264</c:v>
+                  <c:v>66.007155635062645</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>58.01948051948051</c:v>
@@ -1873,121 +1899,121 @@
                   <c:v>86.03333333333336</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.63809523809522</c:v>
+                  <c:v>13.638095238095218</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>108.5904761904762</c:v>
+                  <c:v>108.59047619047624</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>63.79545454545456</c:v>
+                  <c:v>63.795454545454561</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>47.69393939393938</c:v>
+                  <c:v>47.693939393939388</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>94.47521367521375</c:v>
+                  <c:v>94.475213675213752</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>55.30606060606061</c:v>
+                  <c:v>55.306060606060612</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43.44444444444446</c:v>
+                  <c:v>43.444444444444457</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>68.6015873015873</c:v>
+                  <c:v>68.601587301587301</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>17.89523809523808</c:v>
+                  <c:v>17.895238095238085</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>61.11038961038963</c:v>
+                  <c:v>61.110389610389632</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>87.05909090909091</c:v>
+                  <c:v>87.059090909090912</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>130.3059440559441</c:v>
+                  <c:v>130.30594405594405</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>55.92063492063494</c:v>
+                  <c:v>55.920634920634939</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>65.95182724252493</c:v>
+                  <c:v>65.951827242524928</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>34.60606060606057</c:v>
+                  <c:v>34.606060606060566</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>55.07954545454544</c:v>
+                  <c:v>55.079545454545439</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>37.99025974025971</c:v>
+                  <c:v>37.990259740259717</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>37.7439393939394</c:v>
+                  <c:v>37.743939393939399</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>122.4543828264758</c:v>
+                  <c:v>122.45438282647581</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>59.82626262626263</c:v>
+                  <c:v>59.826262626262633</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>56.94444444444446</c:v>
+                  <c:v>56.944444444444457</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>241.6923076923077</c:v>
+                  <c:v>241.69230769230774</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>42.01025641025643</c:v>
+                  <c:v>42.010256410256432</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>65.65873015873018</c:v>
+                  <c:v>65.658730158730179</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>102.1850649350649</c:v>
+                  <c:v>102.18506493506493</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>45.1065891472868</c:v>
+                  <c:v>45.106589147286797</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>37.00348432055745</c:v>
+                  <c:v>37.003484320557448</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>103.563492063492</c:v>
+                  <c:v>103.56349206349205</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>115.7095238095238</c:v>
+                  <c:v>115.70952380952383</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>83.01948051948051</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-33.875415282392</c:v>
+                  <c:v>-33.875415282391998</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>86.26223776223775</c:v>
+                  <c:v>86.26223776223776</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>18.45606060606059</c:v>
+                  <c:v>18.456060606060589</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>22.29999999999995</c:v>
+                  <c:v>22.299999999999955</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>85.50454545454545</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>62.47222222222223</c:v>
+                  <c:v>62.472222222222229</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>70.25457875457874</c:v>
+                  <c:v>70.254578754578745</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>102.5675213675214</c:v>
+                  <c:v>102.56752136752135</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>51.48601398601403</c:v>
+                  <c:v>51.486013986014029</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>56.61395348837209</c:v>
@@ -1996,6 +2022,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-04C0-4A90-9B76-8575052760AD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2026,13 +2057,13 @@
                   <c:v>0.875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.4375</c:v>
@@ -2077,7 +2108,7 @@
                   <c:v>0.4375</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.5625</c:v>
@@ -2089,13 +2120,13 @@
                   <c:v>0.5625</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.9375</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.5625</c:v>
@@ -2119,7 +2150,7 @@
                   <c:v>0.625</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0.75</c:v>
@@ -2134,10 +2165,10 @@
                   <c:v>0.875</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.0625</c:v>
+                  <c:v>6.25E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>0.875</c:v>
@@ -2146,7 +2177,7 @@
                   <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>0.9375</c:v>
@@ -2182,28 +2213,28 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="58"/>
                 <c:pt idx="0">
-                  <c:v>95.47176079734225</c:v>
+                  <c:v>95.471760797342256</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>62.47222222222223</c:v>
+                  <c:v>62.472222222222229</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.45104895104896</c:v>
+                  <c:v>21.451048951048961</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.3279220779221</c:v>
+                  <c:v>10.327922077922096</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>183.2402597402598</c:v>
+                  <c:v>183.24025974025977</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>102.1318181818182</c:v>
+                  <c:v>102.13181818181818</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>48.5457364341085</c:v>
+                  <c:v>48.545736434108505</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>66.00715563506264</c:v>
+                  <c:v>66.007155635062645</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>58.01948051948051</c:v>
@@ -2212,121 +2243,121 @@
                   <c:v>86.03333333333336</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.63809523809522</c:v>
+                  <c:v>13.638095238095218</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>108.5904761904762</c:v>
+                  <c:v>108.59047619047624</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>63.79545454545456</c:v>
+                  <c:v>63.795454545454561</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>47.69393939393938</c:v>
+                  <c:v>47.693939393939388</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>94.47521367521375</c:v>
+                  <c:v>94.475213675213752</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>55.30606060606061</c:v>
+                  <c:v>55.306060606060612</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43.44444444444446</c:v>
+                  <c:v>43.444444444444457</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>68.6015873015873</c:v>
+                  <c:v>68.601587301587301</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>17.89523809523808</c:v>
+                  <c:v>17.895238095238085</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>61.11038961038963</c:v>
+                  <c:v>61.110389610389632</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>87.05909090909091</c:v>
+                  <c:v>87.059090909090912</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>130.3059440559441</c:v>
+                  <c:v>130.30594405594405</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>55.92063492063494</c:v>
+                  <c:v>55.920634920634939</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>65.95182724252493</c:v>
+                  <c:v>65.951827242524928</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>34.60606060606057</c:v>
+                  <c:v>34.606060606060566</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>55.07954545454544</c:v>
+                  <c:v>55.079545454545439</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>37.99025974025971</c:v>
+                  <c:v>37.990259740259717</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>37.7439393939394</c:v>
+                  <c:v>37.743939393939399</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>122.4543828264758</c:v>
+                  <c:v>122.45438282647581</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>59.82626262626263</c:v>
+                  <c:v>59.826262626262633</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>56.94444444444446</c:v>
+                  <c:v>56.944444444444457</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>241.6923076923077</c:v>
+                  <c:v>241.69230769230774</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>42.01025641025643</c:v>
+                  <c:v>42.010256410256432</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>65.65873015873018</c:v>
+                  <c:v>65.658730158730179</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>102.1850649350649</c:v>
+                  <c:v>102.18506493506493</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>45.1065891472868</c:v>
+                  <c:v>45.106589147286797</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>37.00348432055745</c:v>
+                  <c:v>37.003484320557448</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>103.563492063492</c:v>
+                  <c:v>103.56349206349205</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>115.7095238095238</c:v>
+                  <c:v>115.70952380952383</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>83.01948051948051</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-33.875415282392</c:v>
+                  <c:v>-33.875415282391998</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>86.26223776223775</c:v>
+                  <c:v>86.26223776223776</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>18.45606060606059</c:v>
+                  <c:v>18.456060606060589</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>22.29999999999995</c:v>
+                  <c:v>22.299999999999955</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>85.50454545454545</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>62.47222222222223</c:v>
+                  <c:v>62.472222222222229</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>70.25457875457874</c:v>
+                  <c:v>70.254578754578745</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>102.5675213675214</c:v>
+                  <c:v>102.56752136752135</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>51.48601398601403</c:v>
+                  <c:v>51.486013986014029</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>56.61395348837209</c:v>
@@ -2335,6 +2366,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-04C0-4A90-9B76-8575052760AD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -2394,13 +2430,13 @@
                   <c:v>0.875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.4375</c:v>
@@ -2445,7 +2481,7 @@
                   <c:v>0.4375</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.5625</c:v>
@@ -2457,13 +2493,13 @@
                   <c:v>0.5625</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.9375</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.5625</c:v>
@@ -2487,7 +2523,7 @@
                   <c:v>0.625</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0.75</c:v>
@@ -2502,10 +2538,10 @@
                   <c:v>0.875</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.0625</c:v>
+                  <c:v>6.25E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>0.875</c:v>
@@ -2514,7 +2550,7 @@
                   <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>0.9375</c:v>
@@ -2550,28 +2586,28 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="58"/>
                 <c:pt idx="0">
-                  <c:v>95.47176079734225</c:v>
+                  <c:v>95.471760797342256</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>62.47222222222223</c:v>
+                  <c:v>62.472222222222229</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.45104895104896</c:v>
+                  <c:v>21.451048951048961</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.3279220779221</c:v>
+                  <c:v>10.327922077922096</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>183.2402597402598</c:v>
+                  <c:v>183.24025974025977</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>102.1318181818182</c:v>
+                  <c:v>102.13181818181818</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>48.5457364341085</c:v>
+                  <c:v>48.545736434108505</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>66.00715563506264</c:v>
+                  <c:v>66.007155635062645</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>58.01948051948051</c:v>
@@ -2580,121 +2616,121 @@
                   <c:v>86.03333333333336</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.63809523809522</c:v>
+                  <c:v>13.638095238095218</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>108.5904761904762</c:v>
+                  <c:v>108.59047619047624</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>63.79545454545456</c:v>
+                  <c:v>63.795454545454561</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>47.69393939393938</c:v>
+                  <c:v>47.693939393939388</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>94.47521367521375</c:v>
+                  <c:v>94.475213675213752</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>55.30606060606061</c:v>
+                  <c:v>55.306060606060612</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43.44444444444446</c:v>
+                  <c:v>43.444444444444457</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>68.6015873015873</c:v>
+                  <c:v>68.601587301587301</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>17.89523809523808</c:v>
+                  <c:v>17.895238095238085</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>61.11038961038963</c:v>
+                  <c:v>61.110389610389632</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>87.05909090909091</c:v>
+                  <c:v>87.059090909090912</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>130.3059440559441</c:v>
+                  <c:v>130.30594405594405</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>55.92063492063494</c:v>
+                  <c:v>55.920634920634939</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>65.95182724252493</c:v>
+                  <c:v>65.951827242524928</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>34.60606060606057</c:v>
+                  <c:v>34.606060606060566</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>55.07954545454544</c:v>
+                  <c:v>55.079545454545439</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>37.99025974025971</c:v>
+                  <c:v>37.990259740259717</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>37.7439393939394</c:v>
+                  <c:v>37.743939393939399</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>122.4543828264758</c:v>
+                  <c:v>122.45438282647581</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>59.82626262626263</c:v>
+                  <c:v>59.826262626262633</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>56.94444444444446</c:v>
+                  <c:v>56.944444444444457</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>241.6923076923077</c:v>
+                  <c:v>241.69230769230774</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>42.01025641025643</c:v>
+                  <c:v>42.010256410256432</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>65.65873015873018</c:v>
+                  <c:v>65.658730158730179</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>102.1850649350649</c:v>
+                  <c:v>102.18506493506493</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>45.1065891472868</c:v>
+                  <c:v>45.106589147286797</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>37.00348432055745</c:v>
+                  <c:v>37.003484320557448</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>103.563492063492</c:v>
+                  <c:v>103.56349206349205</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>115.7095238095238</c:v>
+                  <c:v>115.70952380952383</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>83.01948051948051</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-33.875415282392</c:v>
+                  <c:v>-33.875415282391998</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>86.26223776223775</c:v>
+                  <c:v>86.26223776223776</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>18.45606060606059</c:v>
+                  <c:v>18.456060606060589</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>22.29999999999995</c:v>
+                  <c:v>22.299999999999955</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>85.50454545454545</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>62.47222222222223</c:v>
+                  <c:v>62.472222222222229</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>70.25457875457874</c:v>
+                  <c:v>70.254578754578745</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>102.5675213675214</c:v>
+                  <c:v>102.56752136752135</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>51.48601398601403</c:v>
+                  <c:v>51.486013986014029</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>56.61395348837209</c:v>
@@ -2703,6 +2739,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-04C0-4A90-9B76-8575052760AD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2719,8 +2760,8 @@
         <c:axId val="2071551896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.1"/>
-          <c:min val="0.0"/>
+          <c:max val="1.1000000000000001"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2740,7 +2781,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
@@ -2756,7 +2796,7 @@
         <c:axId val="2071543256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="250.0"/>
+          <c:max val="250"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2777,7 +2817,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="0"/>
@@ -2808,7 +2847,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2831,7 +2870,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -2868,7 +2913,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2903,7 +2954,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -3251,34 +3308,34 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="9" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="10" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.59765625" customWidth="1"/>
-    <col min="2" max="3" width="12.59765625" style="12" customWidth="1"/>
-    <col min="4" max="5" width="12.59765625" customWidth="1"/>
-    <col min="6" max="6" width="18.59765625" customWidth="1"/>
-    <col min="7" max="7" width="23.59765625" customWidth="1"/>
-    <col min="8" max="8" width="21.59765625" customWidth="1"/>
-    <col min="9" max="9" width="28.59765625" customWidth="1"/>
-    <col min="10" max="10" width="24.59765625" customWidth="1"/>
-    <col min="11" max="11" width="22.59765625" customWidth="1"/>
-    <col min="12" max="12" width="29.59765625" customWidth="1"/>
-    <col min="13" max="14" width="12.59765625" customWidth="1"/>
-    <col min="15" max="16" width="15.59765625" customWidth="1"/>
-    <col min="17" max="19" width="13.59765625" customWidth="1"/>
-    <col min="20" max="20" width="19.59765625" customWidth="1"/>
-    <col min="21" max="22" width="14.59765625" customWidth="1"/>
-    <col min="23" max="23" width="20.59765625" customWidth="1"/>
-    <col min="24" max="25" width="13.59765625" customWidth="1"/>
-    <col min="26" max="26" width="21.59765625" customWidth="1"/>
-    <col min="27" max="27" width="18.59765625" customWidth="1"/>
-    <col min="28" max="28" width="23.59765625" customWidth="1"/>
-    <col min="29" max="29" width="17.59765625" customWidth="1"/>
-    <col min="30" max="30" width="22.59765625" customWidth="1"/>
-    <col min="31" max="31" width="9.59765625" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" customWidth="1"/>
+    <col min="2" max="3" width="12.5546875" style="12" customWidth="1"/>
+    <col min="4" max="5" width="12.5546875" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" customWidth="1"/>
+    <col min="7" max="7" width="23.5546875" customWidth="1"/>
+    <col min="8" max="8" width="21.5546875" customWidth="1"/>
+    <col min="9" max="9" width="28.5546875" customWidth="1"/>
+    <col min="10" max="10" width="24.5546875" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" customWidth="1"/>
+    <col min="12" max="12" width="29.5546875" customWidth="1"/>
+    <col min="13" max="14" width="12.5546875" customWidth="1"/>
+    <col min="15" max="16" width="15.5546875" customWidth="1"/>
+    <col min="17" max="19" width="13.5546875" customWidth="1"/>
+    <col min="20" max="20" width="19.5546875" customWidth="1"/>
+    <col min="21" max="22" width="14.5546875" customWidth="1"/>
+    <col min="23" max="23" width="20.5546875" customWidth="1"/>
+    <col min="24" max="25" width="13.5546875" customWidth="1"/>
+    <col min="26" max="26" width="21.5546875" customWidth="1"/>
+    <col min="27" max="27" width="18.5546875" customWidth="1"/>
+    <col min="28" max="28" width="23.5546875" customWidth="1"/>
+    <col min="29" max="29" width="17.5546875" customWidth="1"/>
+    <col min="30" max="30" width="22.5546875" customWidth="1"/>
+    <col min="31" max="31" width="9.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="13">
+    <row r="1" spans="1:31" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3369,7 +3426,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="13">
+    <row r="2" spans="1:31" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>28020</v>
       </c>
@@ -3464,7 +3521,7 @@
         <v>0.9555555555555556</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="13">
+    <row r="3" spans="1:31" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>28021</v>
       </c>
@@ -3559,7 +3616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="13">
+    <row r="4" spans="1:31" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>28022</v>
       </c>
@@ -3654,7 +3711,7 @@
         <v>0.97777777777777775</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="13">
+    <row r="5" spans="1:31" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>28023</v>
       </c>
@@ -3749,7 +3806,7 @@
         <v>0.97777777777777775</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="13">
+    <row r="6" spans="1:31" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>28024</v>
       </c>
@@ -3844,7 +3901,7 @@
         <v>0.97777777777777775</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="13">
+    <row r="7" spans="1:31" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>28025</v>
       </c>
@@ -3939,7 +3996,7 @@
         <v>0.97777777777777775</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="13">
+    <row r="8" spans="1:31" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>28026</v>
       </c>
@@ -4034,7 +4091,7 @@
         <v>0.9555555555555556</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="13">
+    <row r="9" spans="1:31" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>28028</v>
       </c>
@@ -4129,7 +4186,7 @@
         <v>0.9555555555555556</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="13">
+    <row r="10" spans="1:31" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>28029</v>
       </c>
@@ -4224,7 +4281,7 @@
         <v>0.97777777777777775</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="13">
+    <row r="11" spans="1:31" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>28030</v>
       </c>
@@ -4319,7 +4376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="13">
+    <row r="12" spans="1:31" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>28031</v>
       </c>
@@ -4414,7 +4471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="13">
+    <row r="13" spans="1:31" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>28032</v>
       </c>
@@ -4509,7 +4566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="13">
+    <row r="14" spans="1:31" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>28033</v>
       </c>
@@ -4604,7 +4661,7 @@
         <v>0.97777777777777775</v>
       </c>
     </row>
-    <row r="15" spans="1:31" s="18" customFormat="1" ht="13">
+    <row r="15" spans="1:31" s="18" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>28034</v>
       </c>
@@ -4699,7 +4756,7 @@
         <v>0.9555555555555556</v>
       </c>
     </row>
-    <row r="16" spans="1:31" ht="13">
+    <row r="16" spans="1:31" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>28035</v>
       </c>
@@ -4794,7 +4851,7 @@
         <v>0.97777777777777775</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="13">
+    <row r="17" spans="1:31" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>28036</v>
       </c>
@@ -4889,7 +4946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="13">
+    <row r="18" spans="1:31" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>28037</v>
       </c>
@@ -4984,7 +5041,7 @@
         <v>0.97777777777777775</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="13">
+    <row r="19" spans="1:31" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>28038</v>
       </c>
@@ -5079,7 +5136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="13">
+    <row r="20" spans="1:31" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>28039</v>
       </c>
@@ -5174,7 +5231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:31" s="18" customFormat="1" ht="13">
+    <row r="21" spans="1:31" s="18" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>28040</v>
       </c>
@@ -5269,7 +5326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="13">
+    <row r="22" spans="1:31" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>28041</v>
       </c>
@@ -5364,7 +5421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:31" ht="13">
+    <row r="23" spans="1:31" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>28042</v>
       </c>
@@ -5459,7 +5516,7 @@
         <v>0.97777777777777775</v>
       </c>
     </row>
-    <row r="24" spans="1:31" s="18" customFormat="1" ht="13">
+    <row r="24" spans="1:31" s="18" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>28043</v>
       </c>
@@ -5554,7 +5611,7 @@
         <v>0.9555555555555556</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="13">
+    <row r="25" spans="1:31" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>28044</v>
       </c>
@@ -5649,7 +5706,7 @@
         <v>0.97777777777777775</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="13">
+    <row r="26" spans="1:31" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>28045</v>
       </c>
@@ -5744,7 +5801,7 @@
         <v>0.97777777777777775</v>
       </c>
     </row>
-    <row r="27" spans="1:31" s="18" customFormat="1" ht="13">
+    <row r="27" spans="1:31" s="18" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>28047</v>
       </c>
@@ -5839,7 +5896,7 @@
         <v>0.97777777777777775</v>
       </c>
     </row>
-    <row r="28" spans="1:31" ht="13">
+    <row r="28" spans="1:31" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>28048</v>
       </c>
@@ -5934,7 +5991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:31" ht="13">
+    <row r="29" spans="1:31" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>28049</v>
       </c>
@@ -6029,7 +6086,7 @@
         <v>0.9555555555555556</v>
       </c>
     </row>
-    <row r="30" spans="1:31" s="18" customFormat="1" ht="13">
+    <row r="30" spans="1:31" s="18" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <v>28050</v>
       </c>
@@ -6124,7 +6181,7 @@
         <v>0.97777777777777775</v>
       </c>
     </row>
-    <row r="31" spans="1:31" ht="13">
+    <row r="31" spans="1:31" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>28051</v>
       </c>
@@ -6219,7 +6276,7 @@
         <v>0.97777777777777775</v>
       </c>
     </row>
-    <row r="32" spans="1:31" ht="13">
+    <row r="32" spans="1:31" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>28052</v>
       </c>
@@ -6314,7 +6371,7 @@
         <v>0.97777777777777775</v>
       </c>
     </row>
-    <row r="33" spans="1:31" ht="13">
+    <row r="33" spans="1:31" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>28053</v>
       </c>
@@ -6409,7 +6466,7 @@
         <v>0.97777777777777775</v>
       </c>
     </row>
-    <row r="34" spans="1:31" ht="13">
+    <row r="34" spans="1:31" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>28054</v>
       </c>
@@ -6504,7 +6561,7 @@
         <v>0.97777777777777775</v>
       </c>
     </row>
-    <row r="35" spans="1:31" ht="13">
+    <row r="35" spans="1:31" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>28055</v>
       </c>
@@ -6599,7 +6656,7 @@
         <v>0.9555555555555556</v>
       </c>
     </row>
-    <row r="36" spans="1:31" ht="13">
+    <row r="36" spans="1:31" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>28056</v>
       </c>
@@ -6682,7 +6739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:31" ht="13">
+    <row r="37" spans="1:31" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>28057</v>
       </c>
@@ -6777,7 +6834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:31" ht="13">
+    <row r="38" spans="1:31" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>28058</v>
       </c>
@@ -6872,7 +6929,7 @@
         <v>0.8666666666666667</v>
       </c>
     </row>
-    <row r="39" spans="1:31" s="18" customFormat="1" ht="13">
+    <row r="39" spans="1:31" s="18" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
         <v>28059</v>
       </c>
@@ -6967,7 +7024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:31" ht="13">
+    <row r="40" spans="1:31" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>28060</v>
       </c>
@@ -7062,7 +7119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:31" ht="13">
+    <row r="41" spans="1:31" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>28061</v>
       </c>
@@ -7157,7 +7214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:31" ht="13">
+    <row r="42" spans="1:31" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>28062</v>
       </c>
@@ -7252,7 +7309,7 @@
         <v>0.97777777777777775</v>
       </c>
     </row>
-    <row r="43" spans="1:31" ht="13">
+    <row r="43" spans="1:31" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>28063</v>
       </c>
@@ -7347,7 +7404,7 @@
         <v>0.9555555555555556</v>
       </c>
     </row>
-    <row r="44" spans="1:31" s="18" customFormat="1" ht="13">
+    <row r="44" spans="1:31" s="18" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
         <v>28064</v>
       </c>
@@ -7442,7 +7499,7 @@
         <v>0.91111111111111109</v>
       </c>
     </row>
-    <row r="45" spans="1:31" ht="13">
+    <row r="45" spans="1:31" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>28065</v>
       </c>
@@ -7537,7 +7594,7 @@
         <v>0.91111111111111109</v>
       </c>
     </row>
-    <row r="46" spans="1:31" s="18" customFormat="1" ht="13">
+    <row r="46" spans="1:31" s="18" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="13">
         <v>28066</v>
       </c>
@@ -7632,7 +7689,7 @@
         <v>0.97777777777777775</v>
       </c>
     </row>
-    <row r="47" spans="1:31" ht="13">
+    <row r="47" spans="1:31" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>28067</v>
       </c>
@@ -7727,7 +7784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:31" ht="13">
+    <row r="48" spans="1:31" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>28068</v>
       </c>
@@ -7822,7 +7879,7 @@
         <v>0.93333333333333335</v>
       </c>
     </row>
-    <row r="49" spans="1:31" ht="13">
+    <row r="49" spans="1:31" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>28069</v>
       </c>
@@ -7917,7 +7974,7 @@
         <v>0.97777777777777775</v>
       </c>
     </row>
-    <row r="50" spans="1:31" ht="13">
+    <row r="50" spans="1:31" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>28070</v>
       </c>
@@ -8012,7 +8069,7 @@
         <v>0.9555555555555556</v>
       </c>
     </row>
-    <row r="51" spans="1:31" ht="13">
+    <row r="51" spans="1:31" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>28071</v>
       </c>
@@ -8107,7 +8164,7 @@
         <v>0.97777777777777775</v>
       </c>
     </row>
-    <row r="52" spans="1:31" ht="13">
+    <row r="52" spans="1:31" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>28072</v>
       </c>
@@ -8202,7 +8259,7 @@
         <v>0.97777777777777775</v>
       </c>
     </row>
-    <row r="53" spans="1:31" ht="13">
+    <row r="53" spans="1:31" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>28073</v>
       </c>
@@ -8297,7 +8354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:31" ht="13">
+    <row r="54" spans="1:31" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>28074</v>
       </c>
@@ -8392,7 +8449,7 @@
         <v>0.97777777777777775</v>
       </c>
     </row>
-    <row r="55" spans="1:31" ht="13">
+    <row r="55" spans="1:31" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>28075</v>
       </c>
@@ -8487,7 +8544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:31" ht="13">
+    <row r="56" spans="1:31" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>28076</v>
       </c>
@@ -8582,7 +8639,7 @@
         <v>0.93333333333333335</v>
       </c>
     </row>
-    <row r="57" spans="1:31" ht="13">
+    <row r="57" spans="1:31" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>28077</v>
       </c>
@@ -8677,7 +8734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:31" ht="13">
+    <row r="58" spans="1:31" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>28078</v>
       </c>
@@ -8772,7 +8829,7 @@
         <v>0.97777777777777775</v>
       </c>
     </row>
-    <row r="59" spans="1:31" ht="13">
+    <row r="59" spans="1:31" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>28079</v>
       </c>
@@ -8867,7 +8924,7 @@
         <v>0.9555555555555556</v>
       </c>
     </row>
-    <row r="62" spans="1:31">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B62" s="12">
         <f>CORREL(B2:B59,D2:D59)</f>
         <v>-0.43118185578020346</v>
@@ -8888,37 +8945,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC59"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection sqref="A1:AC59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="9" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="10" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.59765625" customWidth="1"/>
-    <col min="2" max="3" width="12.59765625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="18.59765625" customWidth="1"/>
-    <col min="5" max="5" width="23.59765625" customWidth="1"/>
-    <col min="6" max="6" width="21.59765625" customWidth="1"/>
-    <col min="7" max="7" width="28.59765625" customWidth="1"/>
-    <col min="8" max="8" width="24.59765625" customWidth="1"/>
-    <col min="9" max="9" width="22.59765625" customWidth="1"/>
-    <col min="10" max="10" width="29.59765625" customWidth="1"/>
-    <col min="11" max="12" width="12.59765625" customWidth="1"/>
-    <col min="13" max="14" width="15.59765625" customWidth="1"/>
-    <col min="15" max="17" width="13.59765625" customWidth="1"/>
-    <col min="18" max="18" width="19.59765625" customWidth="1"/>
-    <col min="19" max="20" width="14.59765625" customWidth="1"/>
-    <col min="21" max="21" width="20.59765625" customWidth="1"/>
-    <col min="22" max="23" width="13.59765625" customWidth="1"/>
-    <col min="24" max="24" width="21.59765625" customWidth="1"/>
-    <col min="25" max="25" width="18.59765625" customWidth="1"/>
-    <col min="26" max="26" width="23.59765625" customWidth="1"/>
-    <col min="27" max="27" width="17.59765625" customWidth="1"/>
-    <col min="28" max="28" width="22.59765625" customWidth="1"/>
-    <col min="29" max="29" width="9.59765625" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" customWidth="1"/>
+    <col min="2" max="3" width="12.5546875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" customWidth="1"/>
+    <col min="5" max="5" width="23.5546875" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" customWidth="1"/>
+    <col min="7" max="7" width="28.5546875" customWidth="1"/>
+    <col min="8" max="8" width="24.5546875" customWidth="1"/>
+    <col min="9" max="9" width="22.5546875" customWidth="1"/>
+    <col min="10" max="10" width="29.5546875" customWidth="1"/>
+    <col min="11" max="12" width="12.5546875" customWidth="1"/>
+    <col min="13" max="14" width="15.5546875" customWidth="1"/>
+    <col min="15" max="17" width="13.5546875" customWidth="1"/>
+    <col min="18" max="18" width="19.5546875" customWidth="1"/>
+    <col min="19" max="20" width="14.5546875" customWidth="1"/>
+    <col min="21" max="21" width="20.5546875" customWidth="1"/>
+    <col min="22" max="23" width="13.5546875" customWidth="1"/>
+    <col min="24" max="24" width="21.5546875" customWidth="1"/>
+    <col min="25" max="25" width="18.5546875" customWidth="1"/>
+    <col min="26" max="26" width="23.5546875" customWidth="1"/>
+    <col min="27" max="27" width="17.5546875" customWidth="1"/>
+    <col min="28" max="28" width="22.5546875" customWidth="1"/>
+    <col min="29" max="29" width="9.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="13">
+    <row r="1" spans="1:29" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -9007,7 +9064,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="13">
+    <row r="2" spans="1:29" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>28020</v>
       </c>
@@ -9096,7 +9153,7 @@
         <v>0.9555555555555556</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="13">
+    <row r="3" spans="1:29" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>28021</v>
       </c>
@@ -9185,7 +9242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="13">
+    <row r="4" spans="1:29" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>28022</v>
       </c>
@@ -9274,7 +9331,7 @@
         <v>0.97777777777777775</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="13">
+    <row r="5" spans="1:29" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>28023</v>
       </c>
@@ -9363,7 +9420,7 @@
         <v>0.97777777777777775</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="13">
+    <row r="6" spans="1:29" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>28024</v>
       </c>
@@ -9452,7 +9509,7 @@
         <v>0.97777777777777775</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="13">
+    <row r="7" spans="1:29" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>28025</v>
       </c>
@@ -9541,7 +9598,7 @@
         <v>0.97777777777777775</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="13">
+    <row r="8" spans="1:29" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>28026</v>
       </c>
@@ -9630,7 +9687,7 @@
         <v>0.9555555555555556</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="13">
+    <row r="9" spans="1:29" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>28028</v>
       </c>
@@ -9719,7 +9776,7 @@
         <v>0.9555555555555556</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="13">
+    <row r="10" spans="1:29" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>28029</v>
       </c>
@@ -9808,7 +9865,7 @@
         <v>0.97777777777777775</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="13">
+    <row r="11" spans="1:29" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>28030</v>
       </c>
@@ -9897,7 +9954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="13">
+    <row r="12" spans="1:29" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>28031</v>
       </c>
@@ -9986,7 +10043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="13">
+    <row r="13" spans="1:29" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>28032</v>
       </c>
@@ -10075,7 +10132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="13">
+    <row r="14" spans="1:29" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>28033</v>
       </c>
@@ -10164,7 +10221,7 @@
         <v>0.97777777777777775</v>
       </c>
     </row>
-    <row r="15" spans="1:29" s="18" customFormat="1" ht="13">
+    <row r="15" spans="1:29" s="18" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>28034</v>
       </c>
@@ -10253,7 +10310,7 @@
         <v>0.9555555555555556</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="13">
+    <row r="16" spans="1:29" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>28035</v>
       </c>
@@ -10342,7 +10399,7 @@
         <v>0.97777777777777775</v>
       </c>
     </row>
-    <row r="17" spans="1:29" ht="13">
+    <row r="17" spans="1:29" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>28036</v>
       </c>
@@ -10431,7 +10488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:29" ht="13">
+    <row r="18" spans="1:29" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>28037</v>
       </c>
@@ -10520,7 +10577,7 @@
         <v>0.97777777777777775</v>
       </c>
     </row>
-    <row r="19" spans="1:29" ht="13">
+    <row r="19" spans="1:29" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>28038</v>
       </c>
@@ -10609,7 +10666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="13">
+    <row r="20" spans="1:29" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>28039</v>
       </c>
@@ -10698,7 +10755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:29" s="18" customFormat="1" ht="13">
+    <row r="21" spans="1:29" s="18" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>28040</v>
       </c>
@@ -10787,7 +10844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="13">
+    <row r="22" spans="1:29" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>28041</v>
       </c>
@@ -10876,7 +10933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:29" ht="13">
+    <row r="23" spans="1:29" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>28042</v>
       </c>
@@ -10965,7 +11022,7 @@
         <v>0.97777777777777775</v>
       </c>
     </row>
-    <row r="24" spans="1:29" s="18" customFormat="1" ht="13">
+    <row r="24" spans="1:29" s="18" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>28043</v>
       </c>
@@ -11054,7 +11111,7 @@
         <v>0.9555555555555556</v>
       </c>
     </row>
-    <row r="25" spans="1:29" ht="13">
+    <row r="25" spans="1:29" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>28044</v>
       </c>
@@ -11143,7 +11200,7 @@
         <v>0.97777777777777775</v>
       </c>
     </row>
-    <row r="26" spans="1:29" ht="13">
+    <row r="26" spans="1:29" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>28045</v>
       </c>
@@ -11232,7 +11289,7 @@
         <v>0.97777777777777775</v>
       </c>
     </row>
-    <row r="27" spans="1:29" s="18" customFormat="1" ht="13">
+    <row r="27" spans="1:29" s="18" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>28047</v>
       </c>
@@ -11321,7 +11378,7 @@
         <v>0.97777777777777775</v>
       </c>
     </row>
-    <row r="28" spans="1:29" ht="13">
+    <row r="28" spans="1:29" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>28048</v>
       </c>
@@ -11410,7 +11467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:29" ht="13">
+    <row r="29" spans="1:29" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>28049</v>
       </c>
@@ -11499,7 +11556,7 @@
         <v>0.9555555555555556</v>
       </c>
     </row>
-    <row r="30" spans="1:29" s="18" customFormat="1" ht="13">
+    <row r="30" spans="1:29" s="18" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <v>28050</v>
       </c>
@@ -11588,7 +11645,7 @@
         <v>0.97777777777777775</v>
       </c>
     </row>
-    <row r="31" spans="1:29" ht="13">
+    <row r="31" spans="1:29" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>28051</v>
       </c>
@@ -11677,7 +11734,7 @@
         <v>0.97777777777777775</v>
       </c>
     </row>
-    <row r="32" spans="1:29" ht="13">
+    <row r="32" spans="1:29" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>28052</v>
       </c>
@@ -11766,7 +11823,7 @@
         <v>0.97777777777777775</v>
       </c>
     </row>
-    <row r="33" spans="1:29" ht="13">
+    <row r="33" spans="1:29" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>28053</v>
       </c>
@@ -11855,7 +11912,7 @@
         <v>0.97777777777777775</v>
       </c>
     </row>
-    <row r="34" spans="1:29" ht="13">
+    <row r="34" spans="1:29" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>28054</v>
       </c>
@@ -11944,7 +12001,7 @@
         <v>0.97777777777777775</v>
       </c>
     </row>
-    <row r="35" spans="1:29" ht="13">
+    <row r="35" spans="1:29" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>28055</v>
       </c>
@@ -12033,7 +12090,7 @@
         <v>0.9555555555555556</v>
       </c>
     </row>
-    <row r="36" spans="1:29" ht="13">
+    <row r="36" spans="1:29" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>28056</v>
       </c>
@@ -12110,7 +12167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:29" ht="13">
+    <row r="37" spans="1:29" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>28057</v>
       </c>
@@ -12199,7 +12256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:29" ht="13">
+    <row r="38" spans="1:29" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>28058</v>
       </c>
@@ -12288,7 +12345,7 @@
         <v>0.8666666666666667</v>
       </c>
     </row>
-    <row r="39" spans="1:29" s="18" customFormat="1" ht="13">
+    <row r="39" spans="1:29" s="18" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
         <v>28059</v>
       </c>
@@ -12377,7 +12434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:29" ht="13">
+    <row r="40" spans="1:29" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>28060</v>
       </c>
@@ -12466,7 +12523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:29" ht="13">
+    <row r="41" spans="1:29" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>28061</v>
       </c>
@@ -12555,7 +12612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:29" ht="13">
+    <row r="42" spans="1:29" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>28062</v>
       </c>
@@ -12644,7 +12701,7 @@
         <v>0.97777777777777775</v>
       </c>
     </row>
-    <row r="43" spans="1:29" ht="13">
+    <row r="43" spans="1:29" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>28063</v>
       </c>
@@ -12733,7 +12790,7 @@
         <v>0.9555555555555556</v>
       </c>
     </row>
-    <row r="44" spans="1:29" s="18" customFormat="1" ht="13">
+    <row r="44" spans="1:29" s="18" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
         <v>28064</v>
       </c>
@@ -12822,7 +12879,7 @@
         <v>0.91111111111111109</v>
       </c>
     </row>
-    <row r="45" spans="1:29" ht="13">
+    <row r="45" spans="1:29" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>28065</v>
       </c>
@@ -12911,7 +12968,7 @@
         <v>0.91111111111111109</v>
       </c>
     </row>
-    <row r="46" spans="1:29" s="18" customFormat="1" ht="13">
+    <row r="46" spans="1:29" s="18" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="13">
         <v>28066</v>
       </c>
@@ -13000,7 +13057,7 @@
         <v>0.97777777777777775</v>
       </c>
     </row>
-    <row r="47" spans="1:29" ht="13">
+    <row r="47" spans="1:29" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>28067</v>
       </c>
@@ -13089,7 +13146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:29" ht="13">
+    <row r="48" spans="1:29" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>28068</v>
       </c>
@@ -13178,7 +13235,7 @@
         <v>0.93333333333333335</v>
       </c>
     </row>
-    <row r="49" spans="1:29" ht="13">
+    <row r="49" spans="1:29" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>28069</v>
       </c>
@@ -13267,7 +13324,7 @@
         <v>0.97777777777777775</v>
       </c>
     </row>
-    <row r="50" spans="1:29" ht="13">
+    <row r="50" spans="1:29" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>28070</v>
       </c>
@@ -13356,7 +13413,7 @@
         <v>0.9555555555555556</v>
       </c>
     </row>
-    <row r="51" spans="1:29" ht="13">
+    <row r="51" spans="1:29" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>28071</v>
       </c>
@@ -13445,7 +13502,7 @@
         <v>0.97777777777777775</v>
       </c>
     </row>
-    <row r="52" spans="1:29" ht="13">
+    <row r="52" spans="1:29" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>28072</v>
       </c>
@@ -13534,7 +13591,7 @@
         <v>0.97777777777777775</v>
       </c>
     </row>
-    <row r="53" spans="1:29" ht="13">
+    <row r="53" spans="1:29" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>28073</v>
       </c>
@@ -13623,7 +13680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:29" ht="13">
+    <row r="54" spans="1:29" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>28074</v>
       </c>
@@ -13712,7 +13769,7 @@
         <v>0.97777777777777775</v>
       </c>
     </row>
-    <row r="55" spans="1:29" ht="13">
+    <row r="55" spans="1:29" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>28075</v>
       </c>
@@ -13801,7 +13858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:29" ht="13">
+    <row r="56" spans="1:29" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>28076</v>
       </c>
@@ -13890,7 +13947,7 @@
         <v>0.93333333333333335</v>
       </c>
     </row>
-    <row r="57" spans="1:29" ht="13">
+    <row r="57" spans="1:29" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>28077</v>
       </c>
@@ -13979,7 +14036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:29" ht="13">
+    <row r="58" spans="1:29" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>28078</v>
       </c>
@@ -14068,7 +14125,7 @@
         <v>0.97777777777777775</v>
       </c>
     </row>
-    <row r="59" spans="1:29" ht="13">
+    <row r="59" spans="1:29" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>28079</v>
       </c>
@@ -14176,18 +14233,18 @@
       <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="11" style="2"/>
-    <col min="3" max="3" width="34.796875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="30.3984375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="33.19921875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="30.796875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="25.3984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="34.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="33.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="30.77734375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="25.44140625" style="2" customWidth="1"/>
     <col min="8" max="8" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -14213,7 +14270,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -14239,7 +14296,7 @@
         <v>2.2222222222222254E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>0.5</v>
       </c>
@@ -14265,7 +14322,7 @@
         <v>0.19999999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>0.5</v>
       </c>
@@ -14291,7 +14348,7 @@
         <v>0.11111111111111105</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -14317,7 +14374,7 @@
         <v>4.4444444444444398E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>0.5</v>
       </c>
@@ -14343,7 +14400,7 @@
         <v>4.4444444444444398E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>0.875</v>
       </c>
@@ -14369,7 +14426,7 @@
         <v>0.31111111111111112</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>0.875</v>
       </c>
@@ -14395,7 +14452,7 @@
         <v>-4.4444444444444398E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>0.375</v>
       </c>
@@ -14421,7 +14478,7 @@
         <v>8.8888888888888906E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>0.625</v>
       </c>
@@ -14447,7 +14504,7 @@
         <v>4.4444444444444398E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>0.375</v>
       </c>
@@ -14473,7 +14530,7 @@
         <v>6.6666666666666652E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>0.875</v>
       </c>
@@ -14499,7 +14556,7 @@
         <v>6.6666666666666652E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>0.625</v>
       </c>
@@ -14525,7 +14582,7 @@
         <v>6.6666666666666652E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>0.875</v>
       </c>
@@ -14551,7 +14608,7 @@
         <v>0.24444444444444446</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -14561,7 +14618,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -14587,7 +14644,7 @@
         <v>-2.2222222222222254E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>0.5</v>
       </c>
@@ -14613,7 +14670,7 @@
         <v>0.1333333333333333</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -14639,7 +14696,7 @@
         <v>-2.2222222222222254E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>0.5</v>
       </c>
@@ -14665,7 +14722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>0.875</v>
       </c>
@@ -14691,7 +14748,7 @@
         <v>6.6666666666666652E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -14711,7 +14768,7 @@
         <v>0.1333333333333333</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>0.625</v>
       </c>
@@ -14737,7 +14794,7 @@
         <v>6.6666666666666652E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>0.375</v>
       </c>
@@ -14763,7 +14820,7 @@
         <v>4.4444444444444398E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -14773,7 +14830,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>0.75</v>
       </c>
@@ -14799,7 +14856,7 @@
         <v>0.31111111111111112</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>0.5</v>
       </c>
@@ -14825,7 +14882,7 @@
         <v>0.11111111111111105</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -14835,7 +14892,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -14861,7 +14918,7 @@
         <v>6.6666666666666652E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>0.75</v>
       </c>
@@ -14887,7 +14944,7 @@
         <v>2.2222222222222254E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -14897,7 +14954,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>1</v>
       </c>
@@ -14923,7 +14980,7 @@
         <v>0.1777777777777777</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>0.625</v>
       </c>
@@ -14949,7 +15006,7 @@
         <v>0.44444444444444442</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>0.625</v>
       </c>
@@ -14975,7 +15032,7 @@
         <v>4.4444444444444398E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>0.875</v>
       </c>
@@ -15001,7 +15058,7 @@
         <v>-2.2222222222222254E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>0.75</v>
       </c>
@@ -15027,7 +15084,7 @@
         <v>8.8888888888888906E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>0.5</v>
       </c>
@@ -15053,7 +15110,7 @@
         <v>0.26666666666666672</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>0.75</v>
       </c>
@@ -15079,7 +15136,7 @@
         <v>0.19999999999999996</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>1</v>
       </c>
@@ -15105,7 +15162,7 @@
         <v>6.6666666666666652E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -15115,7 +15172,7 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>0.875</v>
       </c>
@@ -15141,7 +15198,7 @@
         <v>0.1333333333333333</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>0.625</v>
       </c>
@@ -15167,7 +15224,7 @@
         <v>6.6666666666666652E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>0.375</v>
       </c>
@@ -15193,7 +15250,7 @@
         <v>4.4444444444444398E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>1</v>
       </c>
@@ -15219,7 +15276,7 @@
         <v>0.15555555555555556</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -15229,7 +15286,7 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>0.75</v>
       </c>
@@ -15255,7 +15312,7 @@
         <v>-2.2222222222222254E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -15265,7 +15322,7 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>0.75</v>
       </c>
@@ -15291,7 +15348,7 @@
         <v>6.6666666666666652E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>1</v>
       </c>
@@ -15317,7 +15374,7 @@
         <v>-6.6666666666666652E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>1</v>
       </c>
@@ -15343,7 +15400,7 @@
         <v>4.4444444444444398E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>1</v>
       </c>
@@ -15369,7 +15426,7 @@
         <v>2.2222222222222254E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>0.125</v>
       </c>
@@ -15395,7 +15452,7 @@
         <v>0.11111111111111105</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>0.375</v>
       </c>
@@ -15421,7 +15478,7 @@
         <v>-2.2222222222222254E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>1</v>
       </c>
@@ -15447,7 +15504,7 @@
         <v>6.6666666666666652E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>0.875</v>
       </c>
@@ -15473,7 +15530,7 @@
         <v>0.31111111111111112</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>0.25</v>
       </c>
@@ -15499,7 +15556,7 @@
         <v>0.19999999999999996</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>1</v>
       </c>
@@ -15525,7 +15582,7 @@
         <v>6.6666666666666652E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>0.625</v>
       </c>
@@ -15551,7 +15608,7 @@
         <v>0.1333333333333333</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>0.75</v>
       </c>
@@ -15577,7 +15634,7 @@
         <v>0.11111111111111105</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>0.875</v>
       </c>
@@ -15603,7 +15660,7 @@
         <v>-4.4444444444444398E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="9">
+    <row r="60" spans="1:8" ht="10" x14ac:dyDescent="0.2">
       <c r="A60"/>
       <c r="B60"/>
       <c r="C60"/>
@@ -15613,7 +15670,7 @@
       <c r="G60"/>
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -15623,7 +15680,7 @@
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="4">
         <f>AVERAGE(A2:A59)</f>
         <v>0.70499999999999996</v>
@@ -15657,7 +15714,7 @@
         <v>9.4553376906318057E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -15667,7 +15724,7 @@
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D64" s="2">
         <f>_xlfn.T.TEST(D2:D59,E2:E59,2,1)</f>
         <v>5.3212661364440995E-15</v>
@@ -15697,18 +15754,18 @@
       <selection activeCell="J77" sqref="J77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="11" style="2"/>
-    <col min="3" max="3" width="34.796875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="30.3984375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="33.19921875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="22.19921875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.3984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="34.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="33.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22.21875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.44140625" style="2" customWidth="1"/>
     <col min="8" max="8" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -15734,7 +15791,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -15760,7 +15817,7 @@
         <v>2.2222222222222254E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>0.5</v>
       </c>
@@ -15786,7 +15843,7 @@
         <v>0.19999999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>0.5</v>
       </c>
@@ -15812,7 +15869,7 @@
         <v>0.11111111111111105</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -15838,7 +15895,7 @@
         <v>4.4444444444444398E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>0.5</v>
       </c>
@@ -15864,7 +15921,7 @@
         <v>4.4444444444444398E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>0.875</v>
       </c>
@@ -15890,7 +15947,7 @@
         <v>0.31111111111111112</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>0.875</v>
       </c>
@@ -15916,7 +15973,7 @@
         <v>-4.4444444444444398E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>0.375</v>
       </c>
@@ -15942,7 +15999,7 @@
         <v>8.8888888888888906E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>0.625</v>
       </c>
@@ -15968,7 +16025,7 @@
         <v>4.4444444444444398E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>0.375</v>
       </c>
@@ -15994,7 +16051,7 @@
         <v>6.6666666666666652E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>0.875</v>
       </c>
@@ -16020,7 +16077,7 @@
         <v>6.6666666666666652E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>0.625</v>
       </c>
@@ -16046,7 +16103,7 @@
         <v>6.6666666666666652E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>0.875</v>
       </c>
@@ -16072,7 +16129,7 @@
         <v>0.24444444444444446</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -16082,7 +16139,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -16108,7 +16165,7 @@
         <v>-2.2222222222222254E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>0.5</v>
       </c>
@@ -16134,7 +16191,7 @@
         <v>0.1333333333333333</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -16160,7 +16217,7 @@
         <v>-2.2222222222222254E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>0.5</v>
       </c>
@@ -16186,7 +16243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>0.875</v>
       </c>
@@ -16212,7 +16269,7 @@
         <v>6.6666666666666652E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -16232,7 +16289,7 @@
         <v>0.1333333333333333</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>0.625</v>
       </c>
@@ -16258,7 +16315,7 @@
         <v>6.6666666666666652E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>0.375</v>
       </c>
@@ -16284,7 +16341,7 @@
         <v>4.4444444444444398E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -16294,7 +16351,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>0.75</v>
       </c>
@@ -16320,7 +16377,7 @@
         <v>0.31111111111111112</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>0.5</v>
       </c>
@@ -16346,7 +16403,7 @@
         <v>0.11111111111111105</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -16356,7 +16413,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -16382,7 +16439,7 @@
         <v>6.6666666666666652E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>0.75</v>
       </c>
@@ -16408,7 +16465,7 @@
         <v>2.2222222222222254E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -16418,7 +16475,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>1</v>
       </c>
@@ -16444,7 +16501,7 @@
         <v>0.1777777777777777</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>0.625</v>
       </c>
@@ -16470,7 +16527,7 @@
         <v>0.44444444444444442</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>0.625</v>
       </c>
@@ -16496,7 +16553,7 @@
         <v>4.4444444444444398E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>0.875</v>
       </c>
@@ -16522,7 +16579,7 @@
         <v>-2.2222222222222254E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>0.75</v>
       </c>
@@ -16548,7 +16605,7 @@
         <v>8.8888888888888906E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>0.5</v>
       </c>
@@ -16574,7 +16631,7 @@
         <v>0.26666666666666672</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>0.75</v>
       </c>
@@ -16600,7 +16657,7 @@
         <v>0.19999999999999996</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>1</v>
       </c>
@@ -16626,7 +16683,7 @@
         <v>6.6666666666666652E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -16636,7 +16693,7 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>0.875</v>
       </c>
@@ -16662,7 +16719,7 @@
         <v>0.1333333333333333</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>0.625</v>
       </c>
@@ -16688,7 +16745,7 @@
         <v>6.6666666666666652E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>0.375</v>
       </c>
@@ -16714,7 +16771,7 @@
         <v>4.4444444444444398E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>1</v>
       </c>
@@ -16740,7 +16797,7 @@
         <v>0.15555555555555556</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -16750,7 +16807,7 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>0.75</v>
       </c>
@@ -16776,7 +16833,7 @@
         <v>-2.2222222222222254E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -16786,7 +16843,7 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>0.75</v>
       </c>
@@ -16812,7 +16869,7 @@
         <v>6.6666666666666652E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>1</v>
       </c>
@@ -16838,7 +16895,7 @@
         <v>-6.6666666666666652E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>1</v>
       </c>
@@ -16864,7 +16921,7 @@
         <v>4.4444444444444398E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>1</v>
       </c>
@@ -16890,7 +16947,7 @@
         <v>2.2222222222222254E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>0.125</v>
       </c>
@@ -16916,7 +16973,7 @@
         <v>0.11111111111111105</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>0.375</v>
       </c>
@@ -16942,7 +16999,7 @@
         <v>-2.2222222222222254E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>1</v>
       </c>
@@ -16968,7 +17025,7 @@
         <v>6.6666666666666652E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>0.875</v>
       </c>
@@ -16994,7 +17051,7 @@
         <v>0.31111111111111112</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>0.25</v>
       </c>
@@ -17020,7 +17077,7 @@
         <v>0.19999999999999996</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>1</v>
       </c>
@@ -17046,7 +17103,7 @@
         <v>6.6666666666666652E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>0.625</v>
       </c>
@@ -17072,7 +17129,7 @@
         <v>0.1333333333333333</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>0.75</v>
       </c>
@@ -17098,7 +17155,7 @@
         <v>0.11111111111111105</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>0.875</v>
       </c>
@@ -17124,7 +17181,7 @@
         <v>-4.4444444444444398E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="9">
+    <row r="60" spans="1:8" ht="10" x14ac:dyDescent="0.2">
       <c r="A60"/>
       <c r="B60"/>
       <c r="C60"/>
@@ -17134,7 +17191,7 @@
       <c r="G60"/>
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>29</v>
       </c>
@@ -17164,7 +17221,7 @@
         <v>-3.4906511667196903E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>30</v>
       </c>
@@ -17194,7 +17251,7 @@
         <v>-9.5902606643608876E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -17204,7 +17261,7 @@
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>31</v>
       </c>
@@ -17233,7 +17290,7 @@
         <v>-0.24449458106250588</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>32</v>
       </c>
@@ -17277,22 +17334,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="11" style="2"/>
-    <col min="3" max="3" width="34.796875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="30.3984375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="33.19921875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="34.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="33.21875" style="2" customWidth="1"/>
     <col min="6" max="6" width="30" style="2" customWidth="1"/>
-    <col min="7" max="7" width="28.3984375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="28.44140625" style="2" customWidth="1"/>
     <col min="8" max="8" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -17318,7 +17375,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="11">
         <v>0.75</v>
       </c>
@@ -17344,7 +17401,7 @@
         <v>2.2222222222222254E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
         <v>0.5</v>
       </c>
@@ -17370,7 +17427,7 @@
         <v>0.19999999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="11">
         <v>0.5625</v>
       </c>
@@ -17396,7 +17453,7 @@
         <v>0.11111111111111105</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
         <v>0</v>
       </c>
@@ -17422,7 +17479,7 @@
         <v>4.4444444444444398E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>0.5</v>
       </c>
@@ -17448,7 +17505,7 @@
         <v>4.4444444444444398E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>0.9375</v>
       </c>
@@ -17474,7 +17531,7 @@
         <v>0.31111111111111112</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
         <v>0.875</v>
       </c>
@@ -17500,7 +17557,7 @@
         <v>-4.4444444444444398E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <v>0.4375</v>
       </c>
@@ -17526,7 +17583,7 @@
         <v>8.8888888888888906E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="14">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>0.6875</v>
       </c>
@@ -17552,7 +17609,7 @@
         <v>4.4444444444444398E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>0.25</v>
       </c>
@@ -17578,7 +17635,7 @@
         <v>6.6666666666666652E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>0.875</v>
       </c>
@@ -17604,7 +17661,7 @@
         <v>6.6666666666666652E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>0.6875</v>
       </c>
@@ -17630,7 +17687,7 @@
         <v>6.6666666666666652E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>0.6875</v>
       </c>
@@ -17656,7 +17713,7 @@
         <v>0.24444444444444446</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="14">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
       <c r="C15" s="1"/>
@@ -17666,7 +17723,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" ht="14">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>1</v>
       </c>
@@ -17692,7 +17749,7 @@
         <v>-2.2222222222222254E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="14">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>0.4375</v>
       </c>
@@ -17718,7 +17775,7 @@
         <v>0.1333333333333333</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="14">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>0.5</v>
       </c>
@@ -17744,7 +17801,7 @@
         <v>-2.2222222222222254E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="14">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="11">
         <v>0.5</v>
       </c>
@@ -17770,7 +17827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="14">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="11">
         <v>0.875</v>
       </c>
@@ -17796,7 +17853,7 @@
         <v>6.6666666666666652E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="14">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
       <c r="C21" s="1"/>
@@ -17816,7 +17873,7 @@
         <v>0.1333333333333333</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="14">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="11">
         <v>0.75</v>
       </c>
@@ -17842,7 +17899,7 @@
         <v>6.6666666666666652E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="14">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="11">
         <v>0.4375</v>
       </c>
@@ -17868,7 +17925,7 @@
         <v>4.4444444444444398E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="14">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="1"/>
@@ -17878,7 +17935,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" ht="14">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="11">
         <v>0.75</v>
       </c>
@@ -17904,7 +17961,7 @@
         <v>0.31111111111111112</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="14">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="11">
         <v>0.5625</v>
       </c>
@@ -17930,7 +17987,7 @@
         <v>0.11111111111111105</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="14">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="1"/>
@@ -17940,7 +17997,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" ht="14">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="11">
         <v>1</v>
       </c>
@@ -17966,7 +18023,7 @@
         <v>6.6666666666666652E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="14">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="11">
         <v>0.8125</v>
       </c>
@@ -17992,7 +18049,7 @@
         <v>2.2222222222222254E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="14">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="1"/>
@@ -18002,7 +18059,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" ht="14">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="11">
         <v>1</v>
       </c>
@@ -18028,7 +18085,7 @@
         <v>0.1777777777777777</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="14">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="11">
         <v>0.625</v>
       </c>
@@ -18054,7 +18111,7 @@
         <v>0.44444444444444442</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="14">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="11">
         <v>0.75</v>
       </c>
@@ -18080,7 +18137,7 @@
         <v>4.4444444444444398E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="14">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="11">
         <v>0.8125</v>
       </c>
@@ -18106,7 +18163,7 @@
         <v>-2.2222222222222254E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="14">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="11">
         <v>0.8125</v>
       </c>
@@ -18132,7 +18189,7 @@
         <v>8.8888888888888906E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="14">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="11">
         <v>0.3125</v>
       </c>
@@ -18158,7 +18215,7 @@
         <v>0.26666666666666672</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="14">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="11">
         <v>0.6875</v>
       </c>
@@ -18184,7 +18241,7 @@
         <v>0.19999999999999996</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="14">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="11">
         <v>0.875</v>
       </c>
@@ -18210,7 +18267,7 @@
         <v>6.6666666666666652E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="14">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="14"/>
       <c r="B39" s="14"/>
       <c r="C39" s="1"/>
@@ -18220,7 +18277,7 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="1:8" ht="14">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="11">
         <v>0.8125</v>
       </c>
@@ -18246,7 +18303,7 @@
         <v>0.1333333333333333</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="14">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="11">
         <v>0.6875</v>
       </c>
@@ -18272,7 +18329,7 @@
         <v>6.6666666666666652E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="14">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="11">
         <v>0.375</v>
       </c>
@@ -18298,7 +18355,7 @@
         <v>4.4444444444444398E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="14">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="11">
         <v>1</v>
       </c>
@@ -18324,7 +18381,7 @@
         <v>0.15555555555555556</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="14">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" s="1"/>
@@ -18334,7 +18391,7 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="1:8" ht="14">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="11">
         <v>0.625</v>
       </c>
@@ -18360,7 +18417,7 @@
         <v>-2.2222222222222254E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="14">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
       <c r="C46" s="1"/>
@@ -18370,7 +18427,7 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="1:8" ht="14">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="11">
         <v>0.375</v>
       </c>
@@ -18396,7 +18453,7 @@
         <v>6.6666666666666652E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="14">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="11">
         <v>1</v>
       </c>
@@ -18422,7 +18479,7 @@
         <v>-6.6666666666666652E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="14">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="11">
         <v>0.875</v>
       </c>
@@ -18448,7 +18505,7 @@
         <v>4.4444444444444398E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="14">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="11">
         <v>1</v>
       </c>
@@ -18474,7 +18531,7 @@
         <v>2.2222222222222254E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="14">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="11">
         <v>0.1875</v>
       </c>
@@ -18500,7 +18557,7 @@
         <v>0.11111111111111105</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="14">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="11">
         <v>0.5625</v>
       </c>
@@ -18526,7 +18583,7 @@
         <v>-2.2222222222222254E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="14">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="11">
         <v>0.9375</v>
       </c>
@@ -18552,7 +18609,7 @@
         <v>6.6666666666666652E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="14">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="11">
         <v>0.875</v>
       </c>
@@ -18578,7 +18635,7 @@
         <v>0.31111111111111112</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="14">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="11">
         <v>0.3125</v>
       </c>
@@ -18604,7 +18661,7 @@
         <v>0.19999999999999996</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="14">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="11">
         <v>1</v>
       </c>
@@ -18630,7 +18687,7 @@
         <v>6.6666666666666652E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="14">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="11">
         <v>0.75</v>
       </c>
@@ -18656,7 +18713,7 @@
         <v>0.1333333333333333</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="14">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="11">
         <v>0.875</v>
       </c>
@@ -18682,7 +18739,7 @@
         <v>0.11111111111111105</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="14">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="11">
         <v>0.9375</v>
       </c>
@@ -18708,7 +18765,7 @@
         <v>-4.4444444444444398E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="9">
+    <row r="60" spans="1:8" ht="10" x14ac:dyDescent="0.2">
       <c r="A60"/>
       <c r="B60"/>
       <c r="C60"/>
@@ -18718,7 +18775,7 @@
       <c r="G60"/>
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:8" ht="13" customHeight="1">
+    <row r="61" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="19" t="str">
         <f>A1</f>
         <v>ChooseA_ACC</v>
@@ -18752,37 +18809,37 @@
         <v>Pre_CongruencyEffect_SimonACC</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3">
-        <f>CORREL(C2:C59,$B2:$B59)</f>
+        <f t="shared" ref="C62:H62" si="1">CORREL(C2:C59,$B2:$B59)</f>
         <v>-0.44569542083812907</v>
       </c>
       <c r="D62" s="3">
-        <f>CORREL(D2:D59,$B2:$B59)</f>
+        <f t="shared" si="1"/>
         <v>-0.40476565898426936</v>
       </c>
       <c r="E62" s="3">
-        <f>CORREL(E2:E59,$B2:$B59)</f>
+        <f t="shared" si="1"/>
         <v>-0.22073490638909443</v>
       </c>
       <c r="F62" s="3">
-        <f>CORREL(F2:F59,$B2:$B59)</f>
+        <f t="shared" si="1"/>
         <v>-3.5518984223871376E-2</v>
       </c>
       <c r="G62" s="3">
-        <f>CORREL(G2:G59,$B2:$B59)</f>
+        <f t="shared" si="1"/>
         <v>8.1148056286711831E-2</v>
       </c>
       <c r="H62" s="3">
-        <f>CORREL(H2:H59,$B2:$B59)</f>
+        <f t="shared" si="1"/>
         <v>5.421169828209145E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>30</v>
       </c>
@@ -18792,27 +18849,27 @@
         <v>-6.2448244691470728E-2</v>
       </c>
       <c r="D63" s="3">
-        <f t="shared" ref="D63:H63" si="1">CORREL(D2:D59,$A2:$A59)</f>
+        <f t="shared" ref="D63:H63" si="2">CORREL(D2:D59,$A2:$A59)</f>
         <v>5.3540307270012799E-2</v>
       </c>
       <c r="E63" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.10254801045988336</v>
       </c>
       <c r="F63" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.3249619889349336E-3</v>
       </c>
       <c r="G63" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.28798669727126797</v>
       </c>
       <c r="H63" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-7.9646772008914152E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -18822,7 +18879,7 @@
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>31</v>
       </c>
@@ -18831,27 +18888,27 @@
         <v>-3.4494206177296869</v>
       </c>
       <c r="D65" s="2">
-        <f t="shared" ref="D65:H65" si="2">D62/SQRT((1-(POWER(D62,2)))/(COUNT(D2:D59)-2))</f>
+        <f t="shared" ref="D65:H65" si="3">D62/SQRT((1-(POWER(D62,2)))/(COUNT(D2:D59)-2))</f>
         <v>-3.0985304513060172</v>
       </c>
       <c r="E65" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.5842209918419279</v>
       </c>
       <c r="F65" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.24878987553061618</v>
       </c>
       <c r="G65" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.56991594357955333</v>
       </c>
       <c r="H65" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.38004075133484044</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>32</v>
       </c>
@@ -18860,23 +18917,23 @@
         <v>1.1799222043992158E-3</v>
       </c>
       <c r="D66" s="2">
-        <f t="shared" ref="D66:H66" si="3">TDIST(ABS(D65), (COUNT(D2:D59)-2), 2)</f>
+        <f t="shared" ref="D66:H66" si="4">TDIST(ABS(D65), (COUNT(D2:D59)-2), 2)</f>
         <v>3.2174219397583621E-3</v>
       </c>
       <c r="E66" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.11957698760561476</v>
       </c>
       <c r="F66" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.80456317099659147</v>
       </c>
       <c r="G66" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.57133862242532052</v>
       </c>
       <c r="H66" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.70555752710900643</v>
       </c>
     </row>
